--- a/Content/BP/Inventory/Data/DT_InventoryData.xlsx
+++ b/Content/BP/Inventory/Data/DT_InventoryData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Meat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,9 +123,6 @@
     <t>/Script/Engine.Blueprint'/Game/BP/Actor/Item/BP_AppleActor.BP_AppleActor'</t>
   </si>
   <si>
-    <t>/Script/Engine.Blueprint'/Game/BP/Actor/Item/BP_SwordActor.BP_SwordActor'</t>
-  </si>
-  <si>
     <t>/Script/Engine.Blueprint'/Game/BP/Actor/Item/BP_Banana.BP_Banana'</t>
   </si>
   <si>
@@ -170,6 +163,9 @@
   <si>
     <t>ItemCategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Blueprint'/Game/BP/Actor/Item/BP_LongSwordActor.BP_LongSwordActor'</t>
   </si>
 </sst>
 </file>
@@ -563,7 +559,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -591,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -617,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -646,13 +642,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -675,13 +671,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -704,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -724,22 +720,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -753,22 +749,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
